--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E8" s="3">
         <v>35600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E9" s="3">
         <v>11100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E10" s="3">
         <v>24500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E12" s="3">
         <v>11700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E17" s="3">
         <v>32300</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
         <v>13900</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,16 +1042,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
+      <c r="E20" s="3">
+        <v>100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
@@ -1026,11 +1060,11 @@
       <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>12</v>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
@@ -1038,37 +1072,43 @@
       <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,16 +1232,19 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
+      <c r="E26" s="3">
+        <v>3000</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
@@ -1200,49 +1252,55 @@
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36400</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3">
         <v>-13400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,16 +1424,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>12</v>
+      <c r="E32" s="3">
+        <v>-100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
@@ -1374,11 +1444,11 @@
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>12</v>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36400</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3">
         <v>-13400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36400</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3">
         <v>-13400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1619,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>640900</v>
+      </c>
+      <c r="E41" s="3">
         <v>151700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E43" s="3">
         <v>33900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,17 +1745,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1678,17 +1777,20 @@
       <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>673300</v>
+      </c>
+      <c r="E46" s="3">
         <v>186400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1841,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E48" s="3">
         <v>8300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,17 +1969,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>685700</v>
+      </c>
+      <c r="E54" s="3">
         <v>197200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>9100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,17 +2157,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E59" s="3">
         <v>21500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2052,17 +2189,20 @@
       <c r="K59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E60" s="3">
         <v>30500</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2381,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E66" s="3">
         <v>30500</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,17 +2491,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>325900</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2555,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-157800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2683,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>654900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-159300</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>12</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36400</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3">
         <v>-13400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1200</v>
       </c>
       <c r="F91" s="3">
         <v>-1200</v>
       </c>
       <c r="G91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>485600</v>
+      </c>
+      <c r="E100" s="3">
         <v>49800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3116,70 +3362,79 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>66600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>489200</v>
+      </c>
+      <c r="E102" s="3">
         <v>46000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E8" s="3">
         <v>33900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E9" s="3">
         <v>11400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E10" s="3">
         <v>22500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E12" s="3">
         <v>10900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E17" s="3">
         <v>30800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32300</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="3">
         <v>13900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,19 +1076,20 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
+      <c r="F20" s="3">
+        <v>100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>12</v>
@@ -1063,11 +1097,11 @@
       <c r="H20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>12</v>
@@ -1075,40 +1109,46 @@
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,19 +1284,22 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3000</v>
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
+      <c r="F26" s="3">
+        <v>3000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1255,52 +1307,58 @@
       <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-157800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36400</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="3">
         <v>-13400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,19 +1494,22 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
+      <c r="F32" s="3">
+        <v>-100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -1447,11 +1517,11 @@
       <c r="H32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>12</v>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>12</v>
@@ -1459,40 +1529,46 @@
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-157800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36400</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="3">
         <v>-13400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-157800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36400</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="3">
         <v>-13400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,20 +1706,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>409800</v>
+      </c>
+      <c r="E41" s="3">
         <v>640900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>151700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1652,31 +1739,34 @@
       <c r="L41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>225600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1684,20 +1774,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E43" s="3">
         <v>27900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,20 +1844,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1780,20 +1879,23 @@
       <c r="L45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E46" s="3">
         <v>673300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>186400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,20 +1949,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E48" s="3">
         <v>11100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>12</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,20 +2089,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,20 +2159,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>684700</v>
+      </c>
+      <c r="E54" s="3">
         <v>685700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>197200</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,20 +2226,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,20 +2294,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2192,20 +2329,23 @@
       <c r="L59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E60" s="3">
         <v>30800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,20 +2539,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E66" s="3">
         <v>30800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,11 +2671,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>325900</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,20 +2729,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-154800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-157800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,20 +2869,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>656100</v>
+      </c>
+      <c r="E76" s="3">
         <v>654900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-159300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>12</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-157800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36400</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="3">
         <v>-13400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1200</v>
       </c>
       <c r="G91" s="3">
         <v>-1200</v>
       </c>
       <c r="H91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-228400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,20 +3584,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>485600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>49800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3365,76 +3611,85 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>66600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-231100</v>
+      </c>
+      <c r="E102" s="3">
         <v>489200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E8" s="3">
         <v>30800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E10" s="3">
         <v>19200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E12" s="3">
         <v>12400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,31 +964,34 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E17" s="3">
         <v>34600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="3">
         <v>13900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,22 +1109,23 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
+      <c r="G20" s="3">
+        <v>100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
@@ -1100,11 +1133,11 @@
       <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
@@ -1112,43 +1145,49 @@
       <c r="M20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,22 +1335,25 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3000</v>
       </c>
       <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
+      <c r="G26" s="3">
+        <v>3000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>12</v>
@@ -1310,55 +1361,61 @@
       <c r="I26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-157800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,22 +1563,25 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>12</v>
+      <c r="G32" s="3">
+        <v>-100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>12</v>
@@ -1520,11 +1589,11 @@
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>12</v>
+      <c r="J32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
@@ -1532,43 +1601,49 @@
       <c r="M32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-157800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-157800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,23 +1792,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E41" s="3">
         <v>409800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>640900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>151700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1742,17 +1828,20 @@
       <c r="M41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>524200</v>
+      </c>
+      <c r="E42" s="3">
         <v>225600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
@@ -1768,8 +1857,8 @@
       <c r="J42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1777,23 +1866,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E43" s="3">
         <v>28900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,23 +1942,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1882,23 +1980,26 @@
       <c r="M45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>670700</v>
+      </c>
+      <c r="E46" s="3">
         <v>670000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>673300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>186400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1917,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,23 +2056,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E48" s="3">
         <v>12800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
       </c>
@@ -1987,31 +2094,34 @@
       <c r="M48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,23 +2208,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,23 +2284,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>692900</v>
+      </c>
+      <c r="E54" s="3">
         <v>684700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>685700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>197200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2197,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2356,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2262,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,23 +2430,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E59" s="3">
         <v>24000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2332,23 +2468,26 @@
       <c r="M59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E60" s="3">
         <v>28600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2367,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,31 +2544,34 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,23 +2696,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E66" s="3">
         <v>28600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2577,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,11 +2841,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>325900</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,23 +2902,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-157800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-154800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-157800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2767,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,23 +3054,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>656500</v>
+      </c>
+      <c r="E76" s="3">
         <v>656100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>654900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-159300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
       </c>
@@ -2907,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-157800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1200</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-228400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,23 +3829,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>485600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>49800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3614,82 +3859,91 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>66600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-298600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-231100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>489200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,206 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F8" s="3">
         <v>33300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>30800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>33900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>19100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>17100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F9" s="3">
         <v>13200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F10" s="3">
         <v>20100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>19200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>12700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>11900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>10300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>8500</v>
       </c>
       <c r="M10" s="3">
         <v>9200</v>
       </c>
       <c r="N10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="P10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F12" s="3">
         <v>14400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>12400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>11700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,19 +1007,25 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>12</v>
@@ -993,11 +1039,11 @@
       <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F17" s="3">
         <v>41000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>34600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>30800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>32300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="3">
         <v>13900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>12</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-157800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-36400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="3">
         <v>-13400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>12</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-157800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-36400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-157800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-36400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1965,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>209500</v>
+      </c>
+      <c r="F41" s="3">
         <v>111200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>409800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>640900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>151700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1831,23 +2005,29 @@
       <c r="N41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>666200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>667300</v>
+      </c>
+      <c r="F42" s="3">
         <v>524200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>225600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
       </c>
@@ -1860,38 +2040,44 @@
       <c r="K42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F43" s="3">
         <v>33400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>28900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>27900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>33900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1907,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,29 +2137,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1983,29 +2181,35 @@
       <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>869100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>920600</v>
+      </c>
+      <c r="F46" s="3">
         <v>670700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>670000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>673300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>186400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2021,31 +2225,37 @@
       <c r="N46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>26500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2059,29 +2269,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F48" s="3">
         <v>16800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2097,20 +2313,26 @@
       <c r="N48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F49" s="3">
         <v>3300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2123,11 +2345,11 @@
       <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2445,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2249,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2533,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>987100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1010900</v>
+      </c>
+      <c r="F54" s="3">
         <v>692900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>684700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>685700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>197200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2325,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2617,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2395,8 +2657,14 @@
       <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,29 +2701,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>99400</v>
+      </c>
+      <c r="F59" s="3">
         <v>28600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>24900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2471,29 +2745,35 @@
       <c r="N59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>109700</v>
+      </c>
+      <c r="F60" s="3">
         <v>36300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>28600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>30800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>30500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2509,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,20 +2833,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2573,11 +2865,11 @@
       <c r="J62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +3009,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>114400</v>
+      </c>
+      <c r="F66" s="3">
         <v>36400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>28600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>30800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>30500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2737,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,14 +3180,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>325900</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,28 +3247,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-194000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-178600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-163900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-157800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-154800</v>
       </c>
       <c r="G72" s="3">
         <v>-157800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>12</v>
+      <c r="H72" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-157800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
@@ -2943,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3423,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>888500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>896500</v>
+      </c>
+      <c r="F76" s="3">
         <v>656500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>656100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>654900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-159300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3095,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-157800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-36400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-228400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,29 +4318,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>251000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>485600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>49800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -3862,88 +4354,106 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>66600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>98300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-298600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-231100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>489200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>46000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F8" s="3">
         <v>42300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>40200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>33300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>30800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>33900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>35600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>19100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>17100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F9" s="3">
         <v>16500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>16900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>13200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F10" s="3">
         <v>25800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>23300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>20100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>19200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>22500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>24500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>9200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>8500</v>
       </c>
       <c r="O10" s="3">
         <v>9200</v>
       </c>
       <c r="P10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>25200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>12400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,14 +1069,14 @@
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>12</v>
@@ -1045,11 +1090,11 @@
       <c r="L15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F17" s="3">
         <v>61400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>56200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>41000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>34600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>30800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>32300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="3">
         <v>13900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-16000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>12</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-12600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-14700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-14700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-157800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-36400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>12</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-14700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-157800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-36400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-14700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-157800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-36400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2138,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>219200</v>
+      </c>
+      <c r="F41" s="3">
         <v>160500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>209500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>111200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>409800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>640900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>151700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2011,29 +2184,35 @@
       <c r="P41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>469600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>548200</v>
+      </c>
+      <c r="F42" s="3">
         <v>666200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>667300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>524200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>225600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>12</v>
       </c>
@@ -2046,44 +2225,50 @@
       <c r="M42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>36900</v>
+      </c>
+      <c r="F43" s="3">
         <v>34300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>35300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>33400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>27900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>33900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2334,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2187,35 +2384,41 @@
       <c r="P45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>797700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>812800</v>
+      </c>
+      <c r="F46" s="3">
         <v>869100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>920600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>670700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>670000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>673300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>186400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2231,20 +2434,26 @@
       <c r="P46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F47" s="3">
         <v>26500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2257,11 +2466,11 @@
       <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,35 +2484,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F48" s="3">
         <v>24800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>24200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>16800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>12800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2319,26 +2534,32 @@
       <c r="P48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F49" s="3">
         <v>63900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>64500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2351,11 +2572,11 @@
       <c r="L49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2684,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2784,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>959100</v>
+      </c>
+      <c r="F54" s="3">
         <v>987100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1010900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>692900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>684700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>685700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>197200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2878,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,35 +2974,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>69500</v>
+      </c>
+      <c r="F59" s="3">
         <v>87600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>99400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>28600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>24000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>24900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>21500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2751,35 +3024,41 @@
       <c r="P59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>74600</v>
+      </c>
+      <c r="F60" s="3">
         <v>93700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>109700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>36300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>28600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>30800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>30500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,17 +3139,17 @@
         <v>4900</v>
       </c>
       <c r="E62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G62" s="3">
         <v>4700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2871,11 +3162,11 @@
       <c r="L62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3324,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>80500</v>
+      </c>
+      <c r="F66" s="3">
         <v>98700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>114400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>36400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>28600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>30800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>30500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,14 +3521,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>325900</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,34 +3594,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-236300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-215100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-194000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-178600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-163900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-157800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-154800</v>
       </c>
       <c r="I72" s="3">
         <v>-157800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>12</v>
+      <c r="J72" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-157800</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>12</v>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3794,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="3">
+        <v>878700</v>
+      </c>
+      <c r="F76" s="3">
         <v>888500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>896500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>656500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>656100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>654900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-159300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-14700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-157800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-36400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-40800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-150300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-228400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,35 +4809,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>251000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>485600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>49800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4360,100 +4851,118 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>66600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>58800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>98300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-298600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-231100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>489200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>46000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -1130,8 +1130,8 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
+      <c r="D17" s="3">
+        <v>65100</v>
       </c>
       <c r="E17" s="3">
         <v>65900</v>
@@ -1180,8 +1180,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
+      <c r="D18" s="3">
+        <v>-24700</v>
       </c>
       <c r="E18" s="3">
         <v>-20900</v>
@@ -1250,8 +1250,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
+      <c r="D20" s="3">
+        <v>3700</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
@@ -1300,8 +1300,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
+      <c r="D21" s="3">
+        <v>-18100</v>
       </c>
       <c r="E21" s="3">
         <v>-18600</v>
@@ -1550,8 +1550,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
+      <c r="D26" s="3">
+        <v>-21500</v>
       </c>
       <c r="E26" s="3">
         <v>-21100</v>
@@ -1600,8 +1600,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
+      <c r="D27" s="3">
+        <v>-21200</v>
       </c>
       <c r="E27" s="3">
         <v>-21100</v>
@@ -1850,8 +1850,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
+      <c r="D32" s="3">
+        <v>-3700</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
@@ -1900,8 +1900,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
+      <c r="D33" s="3">
+        <v>-21200</v>
       </c>
       <c r="E33" s="3">
         <v>-21100</v>
@@ -2000,8 +2000,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
+      <c r="D35" s="3">
+        <v>-21200</v>
       </c>
       <c r="E35" s="3">
         <v>-21100</v>
@@ -3805,8 +3805,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>12</v>
+      <c r="D76" s="3">
+        <v>866300</v>
       </c>
       <c r="E76" s="3">
         <v>878700</v>
@@ -3960,8 +3960,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>12</v>
+      <c r="D81" s="3">
+        <v>-21200</v>
       </c>
       <c r="E81" s="3">
         <v>-21100</v>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F8" s="3">
         <v>40400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>45000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>42300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>40200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>33300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>30800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>35600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>19100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>17100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>12700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F9" s="3">
         <v>15000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F10" s="3">
         <v>25400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>29300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>25800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>23300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>20100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>19200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>22500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>24500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>12700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>10300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>9200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>8500</v>
       </c>
       <c r="Q10" s="3">
         <v>9200</v>
       </c>
       <c r="R10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="S10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="T10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F12" s="3">
         <v>28800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>29700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>27000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>25200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>14400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,14 +1121,14 @@
       <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>12</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>12</v>
@@ -1096,11 +1142,11 @@
       <c r="N15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>67600</v>
+      </c>
+      <c r="F17" s="3">
         <v>65100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>65900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>61400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>56200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>41000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>34600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>30800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>32300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="3">
         <v>13900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-20900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-19100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>12</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-12600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-21100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-21100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-157800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-36400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-13400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>12</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-21100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-157800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-36400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-13400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-21100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-157800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-36400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-13400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2312,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>230200</v>
+      </c>
+      <c r="F41" s="3">
         <v>285700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>219200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>160500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>209500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>111200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>409800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>640900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>151700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2190,35 +2364,41 @@
       <c r="R41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>490300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>487300</v>
+      </c>
+      <c r="F42" s="3">
         <v>469600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>548200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>666200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>667300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>524200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>225600</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>12</v>
       </c>
@@ -2231,50 +2411,56 @@
       <c r="O42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F43" s="3">
         <v>33600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>36900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>34300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>35300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>27900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>33900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2532,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2390,41 +2588,47 @@
       <c r="R45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>719600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>756600</v>
+      </c>
+      <c r="F46" s="3">
         <v>797700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>812800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>869100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>920600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>670700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>670000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>673300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>186400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2440,26 +2644,32 @@
       <c r="R46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>67900</v>
+      </c>
+      <c r="F47" s="3">
         <v>53900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>53400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>26500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2472,11 +2682,11 @@
       <c r="L47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2490,41 +2700,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F48" s="3">
         <v>26600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>24800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>24200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2540,32 +2756,38 @@
       <c r="R48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>62300</v>
+      </c>
+      <c r="F49" s="3">
         <v>62800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>63400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>63900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>64500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2578,11 +2800,11 @@
       <c r="N49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2924,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +3036,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>877700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>916400</v>
+      </c>
+      <c r="F54" s="3">
         <v>945000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>959100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>987100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1010900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>692900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>684700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>685700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>197200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2840,8 +3092,14 @@
       <c r="R54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3140,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2930,8 +3192,14 @@
       <c r="R57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3248,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>66900</v>
+      </c>
+      <c r="F59" s="3">
         <v>68500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>69500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>87600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>99400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>28600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>24000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>24900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>21500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3030,41 +3304,47 @@
       <c r="R59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>73300</v>
+      </c>
+      <c r="F60" s="3">
         <v>73800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>74600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>93700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>109700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>36300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>28600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>30800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>30500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3080,8 +3360,14 @@
       <c r="R60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,32 +3416,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4900</v>
+        <v>2800</v>
       </c>
       <c r="E62" s="3">
-        <v>5900</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="3">
         <v>4900</v>
       </c>
       <c r="G62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I62" s="3">
         <v>4700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3168,11 +3460,11 @@
       <c r="N62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3640,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F66" s="3">
         <v>78700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>80500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>98700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>114400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>36400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>28600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>30800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>30500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3380,8 +3696,14 @@
       <c r="R66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,14 +3863,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>325900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,40 +3942,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-293900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-236300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-215100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-194000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-178600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-163900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-157800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-154800</v>
       </c>
       <c r="K72" s="3">
         <v>-157800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>12</v>
+      <c r="L72" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-157800</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>12</v>
@@ -3650,8 +3998,14 @@
       <c r="R72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +4166,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>801800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>839100</v>
+      </c>
+      <c r="F76" s="3">
         <v>866300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>878700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>888500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>896500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>656500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>656100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>654900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-159300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3850,8 +4222,14 @@
       <c r="R76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-21100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-157800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-36400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-13400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-14000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="F94" s="3">
         <v>61200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>72200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-40800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-150300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-228400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,41 +5301,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>251000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>485600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>49800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4857,112 +5349,130 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>66600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="F102" s="3">
         <v>66400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>58800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-49000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>98300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-298600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-231100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>489200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>46000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E8" s="3">
         <v>41000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G8" s="3">
         <v>38600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>40400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>45000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>42300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>40200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>33300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>30800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>33900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>35600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>19100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>17100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>13400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>12700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F9" s="3">
         <v>14400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>16900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F10" s="3">
         <v>26600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>25400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>29300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>23300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>19200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>22500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>9200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>8500</v>
       </c>
       <c r="S10" s="3">
         <v>9200</v>
       </c>
       <c r="T10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="U10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="V10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F12" s="3">
         <v>32400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>31000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>28800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>29700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>27000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>25200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,31 +1081,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>11900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,14 +1172,14 @@
       <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>12</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>12</v>
@@ -1148,11 +1193,11 @@
       <c r="P15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F17" s="3">
         <v>68700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>67600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>65100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>65900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>61400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>56200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>41000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>34600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>30800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>32300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="3">
         <v>13900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-27700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-29000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-24700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-16000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>12</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-28000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-23900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-18100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-12600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-31000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-26900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-21000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,55 +1637,61 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-31200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-26900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-15400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-30700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-21200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-15400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-14700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-157800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-36400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="3">
         <v>-13400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>12</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-30700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-21200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-15400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-14700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-157800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-36400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="3">
         <v>-13400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-30700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-21200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-15400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-14700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-157800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-36400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="3">
         <v>-13400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2485,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F41" s="3">
         <v>150800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>230200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>285700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>219200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>160500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>209500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>111200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>409800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>640900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>151700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2370,41 +2543,47 @@
       <c r="T41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>452600</v>
+      </c>
+      <c r="F42" s="3">
         <v>490300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>487300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>469600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>548200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>666200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>667300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>524200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>225600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>12</v>
       </c>
@@ -2417,56 +2596,62 @@
       <c r="Q42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F43" s="3">
         <v>36700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>31200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>33600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>36900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>34300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>35300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>33400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>28900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>27900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>33900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,47 +2729,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F45" s="3">
         <v>41800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2594,47 +2791,53 @@
       <c r="T45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>485500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>525500</v>
+      </c>
+      <c r="F46" s="3">
         <v>719600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>756600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>797700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>812800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>869100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>920600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>670700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>670000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>673300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>186400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2650,32 +2853,38 @@
       <c r="T46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F47" s="3">
         <v>70900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>67900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>53900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>53400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>26500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2688,11 +2897,11 @@
       <c r="N47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2706,47 +2915,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F48" s="3">
         <v>20600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>24400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>26600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>26500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>24800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>24200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2762,38 +2977,44 @@
       <c r="T48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F49" s="3">
         <v>61700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>62300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>62800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>63400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>63900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>64500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2806,11 +3027,11 @@
       <c r="P49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3163,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>168000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3287,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>835700</v>
+      </c>
+      <c r="F54" s="3">
         <v>877700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>916400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>945000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>959100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>987100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1010900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>692900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>684700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>685700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>197200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>12</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3401,49 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>12</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,47 +3521,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F59" s="3">
         <v>66000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>66900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>68500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>69500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>87600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>99400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>28600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>24900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3310,47 +3583,53 @@
       <c r="T59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F60" s="3">
         <v>73100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>73300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>73800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>74600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>93700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>109700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>36300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>28600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>30800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>30500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,38 +3707,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5900</v>
       </c>
       <c r="H62" s="3">
         <v>4900</v>
       </c>
       <c r="I62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3466,11 +3757,11 @@
       <c r="P62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3955,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>65600</v>
+      </c>
+      <c r="F66" s="3">
         <v>75900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>77300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>78700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>80500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>98700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>114400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>36400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>28600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>30800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,14 +4204,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>325900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,46 +4289,52 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-356700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-321600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-293900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-263200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-236300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-215100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-194000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-178600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-163900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-157800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-154800</v>
       </c>
       <c r="M72" s="3">
         <v>-157800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>12</v>
+      <c r="N72" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-157800</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>12</v>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4537,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>728300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>770100</v>
+      </c>
+      <c r="F76" s="3">
         <v>801800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>839100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>866300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>878700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>888500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>896500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>656500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>656100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>654900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-159300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>12</v>
       </c>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-30700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-21200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-15400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-14700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-157800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-36400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S81" s="3">
         <v>-13400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-14000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-44500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-32700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>61200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>72200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-40800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-150300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-228400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,47 +5792,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-12500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>251000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>485600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>49800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5355,124 +5846,142 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>66600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-79400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-55400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>66400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>58800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-49000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>98300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-298600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-231100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>489200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>46000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -2617,7 +2617,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33400</v>
+        <v>38600</v>
       </c>
       <c r="E43" s="3">
         <v>34400</v>
@@ -2741,7 +2741,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24300</v>
+        <v>19200</v>
       </c>
       <c r="E45" s="3">
         <v>7600</v>
@@ -3533,7 +3533,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61500</v>
+        <v>61600</v>
       </c>
       <c r="E59" s="3">
         <v>55000</v>
@@ -5198,7 +5198,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2600</v>
+        <v>-5400</v>
       </c>
       <c r="E89" s="3">
         <v>-8800</v>
@@ -5287,19 +5287,19 @@
         <v>-1400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>-172700</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-34600</v>
       </c>
       <c r="G91" s="3">
         <v>-1200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J91" s="3">
         <v>-3200</v>
@@ -5470,7 +5470,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>31500</v>
+        <v>38500</v>
       </c>
       <c r="E94" s="3">
         <v>-105400</v>
@@ -5804,7 +5804,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19700</v>
+        <v>-18700</v>
       </c>
       <c r="E100" s="3">
         <v>-3000</v>

--- a/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/API_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>API</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F8" s="3">
         <v>40100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>41000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>41000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>38600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>40400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>45000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>42300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>40200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>33300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>30800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>33900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>35600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>19100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>17100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>14900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>13400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F9" s="3">
         <v>15700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>16600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>14500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>15000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>16500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>16900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F10" s="3">
         <v>24400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>26600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>29300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>25800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>23300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>20100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>19200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>22500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>24500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>12700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>10300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>9200</v>
-      </c>
-      <c r="T10" s="3">
-        <v>8500</v>
       </c>
       <c r="U10" s="3">
         <v>9200</v>
       </c>
       <c r="V10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="W10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="X10" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F12" s="3">
         <v>21300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>29800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>32400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>31000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>28800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>29700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>27000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>25200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>12400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>4000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,20 +1121,26 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
         <v>11900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1113,11 +1153,11 @@
       <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,14 +1224,14 @@
       <c r="K15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>12</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>12</v>
@@ -1199,11 +1245,11 @@
       <c r="R15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F17" s="3">
         <v>70200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>69900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>68700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>67600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>65100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>65900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>61400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>56200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>41000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>34600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>30800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>32300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="3">
         <v>13900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-30100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-28900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-27700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-29000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-24700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-20900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-16000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>12</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-31900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-24400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-28000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-23900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-18100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-18600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-34800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-27300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-31000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-26900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-21000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-21200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-27500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-31200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-26900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-21100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-35100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-30700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-26900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-21200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-21100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-157800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-36400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="3">
         <v>-13400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>12</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-35100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-26900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-21200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-157800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-36400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U33" s="3">
         <v>-13400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-35100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-26900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-21200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-157800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-36400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="3">
         <v>-13400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2659,55 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>50200</v>
+      </c>
+      <c r="F41" s="3">
         <v>45700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>150800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>230200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>285700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>219200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>160500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>209500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>111200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>409800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>640900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>151700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2549,47 +2723,53 @@
       <c r="V41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>165800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>210500</v>
+      </c>
+      <c r="F42" s="3">
         <v>382000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>452600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>490300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>487300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>469600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>548200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>666200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>667300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>524200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>225600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>12</v>
       </c>
@@ -2602,62 +2782,68 @@
       <c r="S42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>35400</v>
+      </c>
+      <c r="F43" s="3">
         <v>38600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>34400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>36700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>31200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>36900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>34300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>35300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>33400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>28900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>27900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>33900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2927,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F45" s="3">
         <v>19200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>41800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2797,53 +2995,59 @@
       <c r="V45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>244900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>306100</v>
+      </c>
+      <c r="F46" s="3">
         <v>485500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>525500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>719600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>756600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>797700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>812800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>869100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>920600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>670700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>670000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>673300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>186400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2859,38 +3063,44 @@
       <c r="V46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>252300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>222700</v>
+      </c>
+      <c r="F47" s="3">
         <v>94200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>63400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>70900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>67900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>53900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>53400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>26500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2903,11 +3113,11 @@
       <c r="P47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2921,53 +3131,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F48" s="3">
         <v>15300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>17800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>24400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>26600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>26500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>24200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2983,44 +3199,50 @@
       <c r="V48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F49" s="3">
         <v>34700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>61100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>61700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>62300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>62800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>63400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>63900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>64500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>12</v>
       </c>
@@ -3033,11 +3255,11 @@
       <c r="R49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,53 +3403,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>171400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>178800</v>
+      </c>
+      <c r="F52" s="3">
         <v>171100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>168000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>12</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3539,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>688400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>759300</v>
+      </c>
+      <c r="F54" s="3">
         <v>800700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>835700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>877700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>916400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>945000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>959100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>987100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1010900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>692900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>684700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>685700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>197200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>12</v>
       </c>
@@ -3355,8 +3607,14 @@
       <c r="V54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3663,55 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>12</v>
       </c>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,53 +3795,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F59" s="3">
         <v>61600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>55000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>66000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>66900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>68500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>69500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>87600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>99400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>28600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>24000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>24900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>21500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3589,53 +3863,59 @@
       <c r="V59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F60" s="3">
         <v>71700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>63500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>73100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>73300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>73800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>74600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>93700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>109700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>36300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>28600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>30800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>30500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3651,8 +3931,14 @@
       <c r="V60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,44 +3999,50 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5900</v>
       </c>
       <c r="J62" s="3">
         <v>4900</v>
       </c>
       <c r="K62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3763,11 +4055,11 @@
       <c r="R62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4271,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>56900</v>
+      </c>
+      <c r="F66" s="3">
         <v>72500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>65600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>75900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>77300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>78700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>80500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>98700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>114400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>36400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>28600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>30800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>30500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>12</v>
       </c>
@@ -4023,8 +4339,14 @@
       <c r="V66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,14 +4546,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>325900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,52 +4637,58 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-373500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-356700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-321600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-293900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-263200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-236300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-215100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-194000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-178600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-163900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-157800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-154800</v>
       </c>
       <c r="O72" s="3">
         <v>-157800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>12</v>
+      <c r="P72" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-157800</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>12</v>
@@ -4357,8 +4705,14 @@
       <c r="V72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4909,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>632700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>702500</v>
+      </c>
+      <c r="F76" s="3">
         <v>728300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>770100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>801800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>839100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>866300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>878700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>888500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>896500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>656500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>656100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>654900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-159300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>12</v>
       </c>
@@ -4605,8 +4977,14 @@
       <c r="V76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-35100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-26900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-21200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-157800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-36400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U81" s="3">
         <v>-13400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-23800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-14000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-172700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-34600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F94" s="3">
         <v>38500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-105400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-44500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-32700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>61200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>72200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-40800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-150300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-228400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,53 +6284,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-12500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>251000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>485600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>49800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5852,136 +6344,154 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>66600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F102" s="3">
         <v>14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-120000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-79400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-55400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>66400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>58800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-49000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>98300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-298600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-231100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>489200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>46000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>12</v>
       </c>
     </row>
